--- a/public/download/employee-sample.xlsx
+++ b/public/download/employee-sample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wamp64\www\whitelabel\public\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39A146F7-4791-4068-806B-1DE619B703B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09294ACD-875C-46A2-B669-30EB7AC49199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>First Name</t>
   </si>
@@ -37,22 +37,19 @@
     <t>Role</t>
   </si>
   <si>
-    <t>shubhams</t>
-  </si>
-  <si>
-    <t>G.s</t>
-  </si>
-  <si>
     <t>Staffs</t>
   </si>
   <si>
-    <t>shu007@sgmail.com</t>
-  </si>
-  <si>
-    <t>shum007@gmail.coms</t>
-  </si>
-  <si>
-    <t>shsubhasm007@gmail.coms</t>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>xyz007@gmail.coms</t>
+  </si>
+  <si>
+    <t>yz@gmail.coms</t>
   </si>
 </sst>
 </file>
@@ -411,7 +408,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,27 +436,27 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>123456</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -468,34 +465,19 @@
         <v>12345678</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>12345678</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
+      <c r="C4" s="2"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{83D88800-9265-4325-92E8-7B316547BAF1}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{46403010-90AF-4555-AB5F-FAB9E85F1C6C}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{885B2259-FA54-4901-BB29-7D9271A2DBF9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>